--- a/src/test/resources/ExcelSheet/Recruitment.xlsx
+++ b/src/test/resources/ExcelSheet/Recruitment.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OrangeHRMintel\data-driven-test-automation\src\test\resources\ExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0DD3EC-1AEC-431A-8C59-CF0C12CA427F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C489A8-3769-4B15-B2CB-F2D63EE1AB50}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5490" yWindow="1950" windowWidth="9585" windowHeight="7875" activeTab="1" xr2:uid="{E29C7E7B-C0AD-4B25-964C-1D6B60FEA2E2}"/>
+    <workbookView xWindow="390" yWindow="1230" windowWidth="9585" windowHeight="7875" xr2:uid="{E29C7E7B-C0AD-4B25-964C-1D6B60FEA2E2}"/>
   </bookViews>
   <sheets>
     <sheet name="AddVacancy" sheetId="1" r:id="rId1"/>
-    <sheet name="AddCandidate" sheetId="2" r:id="rId2"/>
+    <sheet name="AddCandidate" sheetId="3" r:id="rId2"/>
+    <sheet name="SearchCandidate" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>JobTitle</t>
   </si>
@@ -59,13 +60,85 @@
   </si>
   <si>
     <t>Hired</t>
+  </si>
+  <si>
+    <t>candidateName</t>
+  </si>
+  <si>
+    <t>keyword</t>
+  </si>
+  <si>
+    <t>ApplicationToDate</t>
+  </si>
+  <si>
+    <t>ApplicationFromDate y/m/d</t>
+  </si>
+  <si>
+    <t>hhh</t>
+  </si>
+  <si>
+    <t>methodOfApplication</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>Thusya</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>middleName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>ContactNum</t>
+  </si>
+  <si>
+    <t>jobVacancy</t>
+  </si>
+  <si>
+    <t>Keyword</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>DateOfApplication</t>
+  </si>
+  <si>
+    <t>thusya</t>
+  </si>
+  <si>
+    <t>thusy</t>
+  </si>
+  <si>
+    <t>gunam</t>
+  </si>
+  <si>
+    <t>gthusi@gmail.com</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>very soon</t>
+  </si>
+  <si>
+    <t>accounts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +151,21 @@
       <color rgb="FF000000"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -97,16 +185,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -421,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9087A582-C57A-4FC5-8718-FA54721B73FC}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,7 +551,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -475,11 +570,99 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C98F44-D38A-4170-8007-DA6BF683D58D}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2">
+        <v>770098567</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2">
+        <v>7777</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="2">
+        <v>43508</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{5E8CC5EA-0F34-4ED7-933E-3B04EACEF765}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AAC20FD-30FB-40DF-A8F2-108AD3421608}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,9 +671,14 @@
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="28" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -503,8 +691,23 @@
       <c r="D1" t="s">
         <v>9</v>
       </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -516,9 +719,25 @@
       </c>
       <c r="D2" t="s">
         <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2">
+        <v>43475</v>
+      </c>
+      <c r="H2" s="2">
+        <v>43477</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/ExcelSheet/Recruitment.xlsx
+++ b/src/test/resources/ExcelSheet/Recruitment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OrangeHRMintel\data-driven-test-automation\src\test\resources\ExcelSheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Anushanth\Test Automation\src\test\resources\ExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C489A8-3769-4B15-B2CB-F2D63EE1AB50}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97989ABF-48E5-43D0-B15B-FEFDE7D85B64}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="1230" windowWidth="9585" windowHeight="7875" xr2:uid="{E29C7E7B-C0AD-4B25-964C-1D6B60FEA2E2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E29C7E7B-C0AD-4B25-964C-1D6B60FEA2E2}"/>
   </bookViews>
   <sheets>
     <sheet name="AddVacancy" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>JobTitle</t>
   </si>
@@ -131,7 +131,13 @@
     <t>very soon</t>
   </si>
   <si>
-    <t>accounts</t>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>test3</t>
   </si>
 </sst>
 </file>
@@ -514,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9087A582-C57A-4FC5-8718-FA54721B73FC}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,6 +566,40 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
         <v>5</v>
       </c>
     </row>

--- a/src/test/resources/ExcelSheet/Recruitment.xlsx
+++ b/src/test/resources/ExcelSheet/Recruitment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OrangeHRMintel\data-driven-test-automation\src\test\resources\ExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C489A8-3769-4B15-B2CB-F2D63EE1AB50}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD4C38B-0B95-4A22-ABE8-467389E7CA50}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="1230" windowWidth="9585" windowHeight="7875" xr2:uid="{E29C7E7B-C0AD-4B25-964C-1D6B60FEA2E2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{E29C7E7B-C0AD-4B25-964C-1D6B60FEA2E2}"/>
   </bookViews>
   <sheets>
     <sheet name="AddVacancy" sheetId="1" r:id="rId1"/>
@@ -516,7 +516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9087A582-C57A-4FC5-8718-FA54721B73FC}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C98F44-D38A-4170-8007-DA6BF683D58D}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/ExcelSheet/Recruitment.xlsx
+++ b/src/test/resources/ExcelSheet/Recruitment.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OrangeHRMintel\data-driven-test-automation\src\test\resources\ExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD4C38B-0B95-4A22-ABE8-467389E7CA50}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1080595-EAE1-4075-A009-E03B9FA7F4B7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{E29C7E7B-C0AD-4B25-964C-1D6B60FEA2E2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E29C7E7B-C0AD-4B25-964C-1D6B60FEA2E2}"/>
   </bookViews>
   <sheets>
-    <sheet name="AddVacancy" sheetId="1" r:id="rId1"/>
-    <sheet name="AddCandidate" sheetId="3" r:id="rId2"/>
+    <sheet name="AddCandidate" sheetId="3" r:id="rId1"/>
+    <sheet name="AddVacancy" sheetId="1" r:id="rId2"/>
     <sheet name="SearchCandidate" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -513,63 +513,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9087A582-C57A-4FC5-8718-FA54721B73FC}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C98F44-D38A-4170-8007-DA6BF683D58D}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -654,6 +597,63 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9087A582-C57A-4FC5-8718-FA54721B73FC}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/test/resources/ExcelSheet/Recruitment.xlsx
+++ b/src/test/resources/ExcelSheet/Recruitment.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OrangeHRMintel\data-driven-test-automation\src\test\resources\ExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1080595-EAE1-4075-A009-E03B9FA7F4B7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E2E279-47F4-4306-8C02-E6F624AE4EB0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E29C7E7B-C0AD-4B25-964C-1D6B60FEA2E2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{E29C7E7B-C0AD-4B25-964C-1D6B60FEA2E2}"/>
   </bookViews>
   <sheets>
     <sheet name="AddCandidate" sheetId="3" r:id="rId1"/>
-    <sheet name="AddVacancy" sheetId="1" r:id="rId2"/>
-    <sheet name="SearchCandidate" sheetId="2" r:id="rId3"/>
+    <sheet name="EditVacancy" sheetId="5" r:id="rId2"/>
+    <sheet name="EditCandidate" sheetId="6" r:id="rId3"/>
+    <sheet name="SearchVacancy" sheetId="4" r:id="rId4"/>
+    <sheet name="AddVacancy" sheetId="1" r:id="rId5"/>
+    <sheet name="SearchCandidate" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
   <si>
     <t>JobTitle</t>
   </si>
@@ -125,20 +128,44 @@
     <t>gthusi@gmail.com</t>
   </si>
   <si>
-    <t>account</t>
-  </si>
-  <si>
     <t>very soon</t>
   </si>
   <si>
     <t>accounts</t>
+  </si>
+  <si>
+    <t>Vacancy</t>
+  </si>
+  <si>
+    <t>HiringManage</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>CEO</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>AEM Resource</t>
+  </si>
+  <si>
+    <t>Linda Anderson</t>
+  </si>
+  <si>
+    <t>Quality Engineer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +194,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -189,7 +222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -199,6 +232,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -516,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C98F44-D38A-4170-8007-DA6BF683D58D}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,16 +614,16 @@
         <v>770098567</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G2">
         <v>7777</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="2">
-        <v>43508</v>
+        <v>32</v>
+      </c>
+      <c r="I2" s="6">
+        <v>43511</v>
       </c>
     </row>
   </sheetData>
@@ -601,11 +636,197 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D82F0E1F-5F17-4897-9614-4C47DBD7C873}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E848881E-3EBE-4F22-8597-2FB72BE73A6E}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2">
+        <v>770098567</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2">
+        <v>888</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="6">
+        <v>43511</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{9DC530C9-F072-4A26-812A-FA0B7818227B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE3DFDE-B504-40E6-B1CF-A98834D271D5}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9087A582-C57A-4FC5-8718-FA54721B73FC}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,7 +860,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -657,7 +878,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AAC20FD-30FB-40DF-A8F2-108AD3421608}">
   <dimension ref="A1:I2"/>
   <sheetViews>

--- a/src/test/resources/ExcelSheet/Recruitment.xlsx
+++ b/src/test/resources/ExcelSheet/Recruitment.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OrangeHRMintel\data-driven-test-automation\src\test\resources\ExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E2E279-47F4-4306-8C02-E6F624AE4EB0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C96F54-440A-40F3-932C-238DE4A71CA5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{E29C7E7B-C0AD-4B25-964C-1D6B60FEA2E2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="846" activeTab="5" xr2:uid="{E29C7E7B-C0AD-4B25-964C-1D6B60FEA2E2}"/>
   </bookViews>
   <sheets>
     <sheet name="AddCandidate" sheetId="3" r:id="rId1"/>
     <sheet name="EditVacancy" sheetId="5" r:id="rId2"/>
     <sheet name="EditCandidate" sheetId="6" r:id="rId3"/>
-    <sheet name="SearchVacancy" sheetId="4" r:id="rId4"/>
-    <sheet name="AddVacancy" sheetId="1" r:id="rId5"/>
-    <sheet name="SearchCandidate" sheetId="2" r:id="rId6"/>
+    <sheet name="Login" sheetId="7" r:id="rId4"/>
+    <sheet name="SearchVacancy" sheetId="4" r:id="rId5"/>
+    <sheet name="AddVacancy" sheetId="1" r:id="rId6"/>
+    <sheet name="SearchCandidate" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="55">
   <si>
     <t>JobTitle</t>
   </si>
@@ -156,6 +157,45 @@
   </si>
   <si>
     <t>Quality Engineer</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>admin123</t>
+  </si>
+  <si>
+    <t>ghh</t>
+  </si>
+  <si>
+    <t>ddd</t>
+  </si>
+  <si>
+    <t>login success</t>
+  </si>
+  <si>
+    <t>valid</t>
+  </si>
+  <si>
+    <t>invalid</t>
+  </si>
+  <si>
+    <t>alertmsg</t>
+  </si>
+  <si>
+    <t>Invalid credentials</t>
+  </si>
+  <si>
+    <t>Username cannot be empty</t>
+  </si>
+  <si>
+    <t>Password cannot be empty</t>
   </si>
 </sst>
 </file>
@@ -694,7 +734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E848881E-3EBE-4F22-8597-2FB72BE73A6E}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -704,6 +744,7 @@
     <col min="5" max="5" width="18.5703125" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -773,6 +814,128 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF5EBF32-6A0D-4364-95BC-DE630C705D0E}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>878</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE3DFDE-B504-40E6-B1CF-A98834D271D5}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -821,12 +984,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9087A582-C57A-4FC5-8718-FA54721B73FC}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,7 +1029,7 @@
         <v>7</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -878,7 +1041,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AAC20FD-30FB-40DF-A8F2-108AD3421608}">
   <dimension ref="A1:I2"/>
   <sheetViews>

--- a/src/test/resources/ExcelSheet/Recruitment.xlsx
+++ b/src/test/resources/ExcelSheet/Recruitment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OrangeHRMintel\data-driven-test-automation\src\test\resources\ExcelSheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\invictaAutomation\data-driven-test-automation\src\test\resources\ExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C96F54-440A-40F3-932C-238DE4A71CA5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874D23D4-B94E-4C6E-AEB7-C41474AD219F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="846" activeTab="5" xr2:uid="{E29C7E7B-C0AD-4B25-964C-1D6B60FEA2E2}"/>
+    <workbookView xWindow="390" yWindow="1230" windowWidth="9585" windowHeight="7875" tabRatio="846" activeTab="5" xr2:uid="{E29C7E7B-C0AD-4B25-964C-1D6B60FEA2E2}"/>
   </bookViews>
   <sheets>
     <sheet name="AddCandidate" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="56">
   <si>
     <t>JobTitle</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>Password cannot be empty</t>
+  </si>
+  <si>
+    <t>Russel Hamilton</t>
   </si>
 </sst>
 </file>
@@ -989,7 +992,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1026,7 +1029,7 @@
         <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="D2">
         <v>6</v>

--- a/src/test/resources/ExcelSheet/Recruitment.xlsx
+++ b/src/test/resources/ExcelSheet/Recruitment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\invictaAutomation\data-driven-test-automation\src\test\resources\ExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874D23D4-B94E-4C6E-AEB7-C41474AD219F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD01E421-4327-4E91-B233-F4C367EAB38B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="1230" windowWidth="9585" windowHeight="7875" tabRatio="846" activeTab="5" xr2:uid="{E29C7E7B-C0AD-4B25-964C-1D6B60FEA2E2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="846" activeTab="6" xr2:uid="{E29C7E7B-C0AD-4B25-964C-1D6B60FEA2E2}"/>
   </bookViews>
   <sheets>
     <sheet name="AddCandidate" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="55">
   <si>
     <t>JobTitle</t>
   </si>
@@ -144,18 +144,12 @@
     <t>Status</t>
   </si>
   <si>
-    <t>CEO</t>
-  </si>
-  <si>
     <t>Active</t>
   </si>
   <si>
     <t>AEM Resource</t>
   </si>
   <si>
-    <t>Linda Anderson</t>
-  </si>
-  <si>
     <t>Quality Engineer</t>
   </si>
   <si>
@@ -199,6 +193,9 @@
   </si>
   <si>
     <t>Russel Hamilton</t>
+  </si>
+  <si>
+    <t>QA Engineer</t>
   </si>
 </sst>
 </file>
@@ -208,7 +205,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +240,13 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF008000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -265,7 +269,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -277,6 +281,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -595,7 +602,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,7 +803,7 @@
         <v>770098567</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G2">
         <v>888</v>
@@ -834,63 +841,63 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -898,38 +905,38 @@
         <v>878</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -968,17 +975,17 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
         <v>37</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -991,13 +998,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9087A582-C57A-4FC5-8718-FA54721B73FC}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
     <col min="4" max="4" width="16.140625" customWidth="1"/>
@@ -1022,14 +1029,14 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
+      <c r="A2" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="B2" t="s">
         <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D2">
         <v>6</v>
@@ -1048,8 +1055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AAC20FD-30FB-40DF-A8F2-108AD3421608}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,14 +1102,14 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
+      <c r="A2" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
